--- a/tut05/output/0401CS15.xlsx
+++ b/tut05/output/0401CS15.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.469387755102041</v>
+        <v>7.47</v>
       </c>
       <c r="C6" t="n">
         <v>6.75</v>
       </c>
       <c r="D6" t="n">
-        <v>7.023255813953488</v>
+        <v>7.02</v>
       </c>
       <c r="E6" t="n">
-        <v>7.595744680851064</v>
+        <v>7.6</v>
       </c>
       <c r="F6" t="n">
-        <v>8.095238095238095</v>
+        <v>8.1</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>8.463414634146341</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>9.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.469387755102041</v>
+        <v>7.47</v>
       </c>
       <c r="C8" t="n">
-        <v>7.129032258064516</v>
+        <v>7.13</v>
       </c>
       <c r="D8" t="n">
-        <v>7.095588235294118</v>
+        <v>7.1</v>
       </c>
       <c r="E8" t="n">
-        <v>7.224043715846994</v>
+        <v>7.22</v>
       </c>
       <c r="F8" t="n">
-        <v>7.386666666666667</v>
+        <v>7.39</v>
       </c>
       <c r="G8" t="n">
-        <v>7.479245283018868</v>
+        <v>7.48</v>
       </c>
       <c r="H8" t="n">
-        <v>7.611111111111111</v>
+        <v>7.61</v>
       </c>
       <c r="I8" t="n">
-        <v>7.783236994219653</v>
+        <v>7.78</v>
       </c>
     </row>
   </sheetData>
